--- a/TaskAutomation/Templates/TemplateExcel.xlsx
+++ b/TaskAutomation/Templates/TemplateExcel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F8135A-7E7C-45CC-975C-97A9DAD892EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B1FBB-F4BC-43CF-B869-6A40193F27A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Объект автоматизации</t>
   </si>
@@ -86,10 +86,13 @@
     <t>Расчетный параметр</t>
   </si>
   <si>
-    <t>Режим измерения параметра</t>
-  </si>
-  <si>
     <t>Примечание</t>
+  </si>
+  <si>
+    <t>Местн. измерение</t>
+  </si>
+  <si>
+    <t>Дист. измерение</t>
   </si>
 </sst>
 </file>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -413,13 +416,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -431,16 +443,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -726,83 +732,84 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="17.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="34.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -810,70 +817,75 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="47.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -888,8 +900,9 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -904,8 +917,9 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -920,8 +934,9 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -936,8 +951,9 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -952,8 +968,9 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -968,8 +985,9 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -984,8 +1002,9 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1000,8 +1019,9 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1016,8 +1036,9 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1032,8 +1053,9 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1048,8 +1070,9 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1064,8 +1087,9 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1080,8 +1104,9 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1096,8 +1121,9 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1112,8 +1138,9 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1128,8 +1155,9 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1144,8 +1172,9 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1158,10 +1187,11 @@
       <c r="J26" s="12"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="8"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1174,10 +1204,11 @@
       <c r="J27" s="12"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="8"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1190,10 +1221,11 @@
       <c r="J28" s="12"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="8"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1205,11 +1237,12 @@
       <c r="I29" s="8"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="12"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1222,10 +1255,11 @@
       <c r="J30" s="12"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="8"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1238,10 +1272,11 @@
       <c r="J31" s="12"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="8"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1254,10 +1289,11 @@
       <c r="J32" s="12"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1269,11 +1305,12 @@
       <c r="I33" s="8"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="12"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1286,10 +1323,11 @@
       <c r="J34" s="12"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1302,10 +1340,11 @@
       <c r="J35" s="12"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="D36" s="16"/>
@@ -1315,55 +1354,60 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
@@ -1379,11 +1423,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
